--- a/TestData/DataSheet.xlsx
+++ b/TestData/DataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C#\AllAuto\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AA75B5-881A-4AA0-9ABF-B357BA780E33}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E439251-ED12-4176-BB70-3977929EE92C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7980" xr2:uid="{710C8CB6-9B6E-49C7-A59E-71AC3C715BF0}"/>
   </bookViews>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9140A208-A4CE-4D8B-961F-3D7D0C8294EA}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,9 +449,10 @@
     <col min="4" max="4" width="14.77734375" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,7 +478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -499,8 +500,9 @@
       <c r="G2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -522,8 +524,9 @@
       <c r="G3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -545,8 +548,9 @@
       <c r="G4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -568,8 +572,9 @@
       <c r="G5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -591,8 +596,9 @@
       <c r="G6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -614,8 +620,9 @@
       <c r="G7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -637,8 +644,9 @@
       <c r="G8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -660,8 +668,9 @@
       <c r="G9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -683,8 +692,9 @@
       <c r="G10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -706,8 +716,9 @@
       <c r="G11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -729,8 +740,9 @@
       <c r="G12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -752,8 +764,9 @@
       <c r="G13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -775,8 +788,9 @@
       <c r="G14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -798,8 +812,9 @@
       <c r="G15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -821,8 +836,9 @@
       <c r="G16">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -844,8 +860,9 @@
       <c r="G17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -867,8 +884,9 @@
       <c r="G18">
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -890,8 +908,9 @@
       <c r="G19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -913,8 +932,9 @@
       <c r="G20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -936,8 +956,9 @@
       <c r="G21">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -959,8 +980,10 @@
       <c r="G22">
         <v>100</v>
       </c>
+      <c r="I22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>